--- a/Cursos-DB.xlsx
+++ b/Cursos-DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Empleados" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="126">
   <si>
     <t xml:space="preserve">Legajo</t>
   </si>
@@ -263,16 +263,16 @@
     <t xml:space="preserve">Aprobado</t>
   </si>
   <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI</t>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
   </si>
   <si>
     <t xml:space="preserve">WBT-HS_E-009</t>
   </si>
   <si>
-    <t xml:space="preserve">Aislamiento de sistemas peligrosos y apertura de lineas por WBT</t>
+    <t xml:space="preserve">Aislamiento de Truestemas peligrosos y apertura de lineas por WBT</t>
   </si>
   <si>
     <t xml:space="preserve">WBT-HS_E-019 BA</t>
@@ -296,13 +296,13 @@
     <t xml:space="preserve">WBT-HS_E-012-L</t>
   </si>
   <si>
-    <t xml:space="preserve">Ergonomia-Anual</t>
+    <t xml:space="preserve">ErgoFalsemia-Anual</t>
   </si>
   <si>
     <t xml:space="preserve">HS_E-015</t>
   </si>
   <si>
-    <t xml:space="preserve">Manejo y Disposición de Residuos Solidos</t>
+    <t xml:space="preserve">Manejo y DispoTrueción de ReTrueduos Solidos</t>
   </si>
   <si>
     <t xml:space="preserve">WBT-HS_E-001-L</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">SOP-HS_E-013</t>
   </si>
   <si>
-    <t xml:space="preserve">Manejo Interno de residuos</t>
+    <t xml:space="preserve">Manejo InterFalse de reTrueduos</t>
   </si>
   <si>
     <t xml:space="preserve">SOP-HS_E-048</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">WBT-HS_E-014</t>
   </si>
   <si>
-    <t xml:space="preserve">BEST-Entrenamiento basico de segruridad electrica</t>
+    <t xml:space="preserve">BEST-Entrenamiento baTrueco de segruridad electrica</t>
   </si>
   <si>
     <t xml:space="preserve">ID-Evento</t>
@@ -399,9 +399,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cursos       Lineas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
   </si>
   <si>
     <t xml:space="preserve">Mecánico</t>
@@ -418,7 +415,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -440,14 +437,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -492,8 +481,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -501,15 +494,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -661,53 +646,53 @@
     <tabColor rgb="FF375623"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="19.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.29"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -716,7 +701,7 @@
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>40654321</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -728,7 +713,7 @@
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -736,7 +721,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>432</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -745,7 +730,7 @@
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>44568987</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -762,7 +747,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>354</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -771,7 +756,7 @@
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>26897654</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -788,7 +773,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>852</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -797,7 +782,7 @@
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>37654789</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -814,7 +799,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>684</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -823,7 +808,7 @@
       <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>29195735</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -840,7 +825,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>915</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -849,7 +834,7 @@
       <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>20345915</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -866,7 +851,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -875,7 +860,7 @@
       <c r="C8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>32687459</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -890,6 +875,9 @@
       <c r="I8" s="2" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="7">
@@ -949,14 +937,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -992,7 +980,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>20974563</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1004,7 +992,7 @@
       <c r="D2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>132</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1021,7 +1009,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>38963856</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1033,7 +1021,7 @@
       <c r="D3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>432</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1050,7 +1038,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>39852147</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1062,7 +1050,7 @@
       <c r="D4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G4" s="2"/>
@@ -1070,7 +1058,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>43915678</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1082,7 +1070,7 @@
       <c r="D5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>852</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1099,7 +1087,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>28945387</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1111,7 +1099,7 @@
       <c r="D6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>684</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1128,7 +1116,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>35658945</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1140,7 +1128,7 @@
       <c r="D7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="G7" s="2"/>
@@ -1148,7 +1136,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>42357951</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1160,7 +1148,7 @@
       <c r="D8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>147</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1236,32 +1224,32 @@
   </sheetPr>
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="0" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="7.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="7.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="12.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="23" style="0" width="4.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="1" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="7.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="6.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="7.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="7.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="12.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="23" style="1" width="5.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1295,75 +1283,75 @@
       <c r="J1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W1" s="0" t="n">
+      <c r="W1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X1" s="0" t="n">
+      <c r="X1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Y1" s="0" t="n">
+      <c r="Y1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="Z1" s="0" t="n">
+      <c r="Z1" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>38963856</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>42357951</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1416,25 +1404,25 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>39852147</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>20974563</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1487,25 +1475,25 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>43915678</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>20974563</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -1558,25 +1546,25 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>38963856</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>38963856</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -1629,25 +1617,25 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>42357951</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>28945387</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1700,25 +1688,25 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>20974563</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>38963856</v>
       </c>
       <c r="K7" s="2" t="s">
@@ -1771,25 +1759,25 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>20974563</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>35658945</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -1842,25 +1830,25 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>38963856</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>38963856</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1913,25 +1901,25 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>28945387</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>35658945</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -1984,25 +1972,25 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>38963856</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>42357951</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -2055,25 +2043,25 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>35658945</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>42357951</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -2126,25 +2114,25 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>42357951</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>20974563</v>
       </c>
       <c r="K13" s="2" t="s">
@@ -2197,25 +2185,25 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <v>42357951</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <v>20974563</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -2268,25 +2256,25 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <v>20974563</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>38963856</v>
       </c>
       <c r="K15" s="2" t="s">
@@ -2339,25 +2327,25 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <v>20974563</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>28945387</v>
       </c>
       <c r="K16" s="2" t="s">
@@ -2410,25 +2398,25 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="1" t="n">
         <v>38963856</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <v>38963856</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -2481,25 +2469,25 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="1" t="n">
         <v>28945387</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>39852147</v>
       </c>
       <c r="K18" s="2" t="s">
@@ -2552,25 +2540,25 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="1" t="n">
         <v>38963856</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>43915678</v>
       </c>
       <c r="K19" s="2" t="s">
@@ -2623,25 +2611,25 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="1" t="n">
         <v>39852147</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
         <v>38963856</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -2694,25 +2682,25 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="1" t="n">
         <v>43915678</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <v>42357951</v>
       </c>
       <c r="K21" s="2" t="s">
@@ -2805,34 +2793,34 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="17.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C2" s="3" t="n">
@@ -2840,10 +2828,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C3" s="3" t="n">
@@ -2851,10 +2839,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="3" t="n">
@@ -2862,10 +2850,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C5" s="3" t="n">
@@ -2873,10 +2861,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C6" s="3" t="n">
@@ -2884,10 +2872,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C7" s="3" t="n">
@@ -2895,10 +2883,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C8" s="3" t="n">
@@ -2906,10 +2894,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C9" s="3" t="n">
@@ -2917,10 +2905,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C10" s="3" t="n">
@@ -2928,10 +2916,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C11" s="3" t="n">
@@ -2939,10 +2927,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C12" s="3" t="n">
@@ -2950,10 +2938,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C13" s="3" t="n">
@@ -2961,10 +2949,10 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C14" s="3" t="n">
@@ -2972,10 +2960,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C15" s="3" t="n">
@@ -2983,10 +2971,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C16" s="3" t="n">
@@ -2994,10 +2982,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C17" s="3" t="n">
@@ -3005,10 +2993,10 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C18" s="3" t="n">
@@ -3016,10 +3004,10 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C19" s="3" t="n">
@@ -3027,10 +3015,10 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C20" s="3" t="n">
@@ -3038,10 +3026,10 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C21" s="3" t="n">
@@ -3068,38 +3056,38 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3119,7 +3107,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3139,7 +3127,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3159,7 +3147,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3179,7 +3167,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3199,7 +3187,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3219,7 +3207,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3239,7 +3227,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3259,7 +3247,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3279,7 +3267,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -3299,7 +3287,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3319,7 +3307,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -3339,7 +3327,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -3359,7 +3347,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3379,7 +3367,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -3399,7 +3387,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -3419,7 +3407,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -3439,7 +3427,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -3459,7 +3447,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3479,7 +3467,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -3524,49 +3512,49 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3592,7 +3580,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3618,7 +3606,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3644,7 +3632,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3670,7 +3658,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3696,7 +3684,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3722,7 +3710,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3748,7 +3736,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3774,7 +3762,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3800,7 +3788,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -3826,7 +3814,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3852,7 +3840,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -3878,7 +3866,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -3904,7 +3892,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3930,7 +3918,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -3956,7 +3944,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -3982,7 +3970,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -4008,7 +3996,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -4034,7 +4022,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -4060,7 +4048,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -4111,34 +4099,34 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="n">
+      <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="n">
+      <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="n">
+      <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4155,7 +4143,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4172,7 +4160,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4189,7 +4177,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -4206,7 +4194,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -4223,7 +4211,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4240,7 +4228,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4257,7 +4245,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -4274,7 +4262,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -4291,7 +4279,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -4308,7 +4296,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -4325,7 +4313,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -4342,7 +4330,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -4359,7 +4347,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4376,7 +4364,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -4393,7 +4381,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -4410,7 +4398,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -4427,7 +4415,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -4444,7 +4432,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -4461,7 +4449,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -4502,18 +4490,18 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4526,7 +4514,7 @@
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -4542,156 +4530,156 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Cursos-DB.xlsx
+++ b/Cursos-DB.xlsx
@@ -18,6 +18,9 @@
     <sheet name="PASL" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <pivotCaches>
+    <pivotCache cacheId="1" r:id="rId11"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="217">
   <si>
     <t xml:space="preserve">Legajo</t>
   </si>
@@ -56,73 +59,439 @@
     <t xml:space="preserve">Turno</t>
   </si>
   <si>
-    <t xml:space="preserve">Raul</t>
+    <t xml:space="preserve">Sergio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bravo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conductor Autoelevador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logistica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embotellamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervisor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mant_Edilicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonathan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonzalez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miranda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produccion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mant_Linea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustavo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guzman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSyMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguridad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benjamín</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantenimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coronel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joaquín</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acuña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferreyra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaboracion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramirez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insumos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguirre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leandro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suarez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tecnico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agustín</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cordoba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esteban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA-Efluentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardozo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboratorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lautaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordinador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodriguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valdez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecanico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pablo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peralta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gutierrez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luciano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juarez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rivero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lopez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mendoza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eustaquio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ortiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moreno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduvigio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martín</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gimenez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figueroa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mant Edilicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Godoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muñoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maidana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santiago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuñez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bautista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabrera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ojeda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vazquez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matías</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escobar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roldan</t>
   </si>
   <si>
     <t xml:space="preserve">Alvarez</t>
   </si>
   <si>
-    <t xml:space="preserve">Operario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produccion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Embotellamiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerardo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electricista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mantenimiento</t>
+    <t xml:space="preserve">Fernando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navarro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldonado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chavez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villalba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mateo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mant Linea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martines</t>
   </si>
   <si>
     <t xml:space="preserve">Mant. Edilicio</t>
   </si>
   <si>
-    <t xml:space="preserve">Pablo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lopez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insumos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antonio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernandez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conductor Autoelevador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logistica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basilio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garcia</t>
+    <t xml:space="preserve">Torres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Externo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MyG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mario</t>
   </si>
   <si>
     <t xml:space="preserve">Técnico</t>
@@ -131,78 +500,6 @@
     <t xml:space="preserve">Mant. Linea</t>
   </si>
   <si>
-    <t xml:space="preserve">Carlos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanchez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coordinador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSyMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seguridad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supervisor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaboracion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Origen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Externo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MyG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suarez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gimenez</t>
-  </si>
-  <si>
     <t xml:space="preserve">Celeste</t>
   </si>
   <si>
@@ -212,9 +509,6 @@
     <t xml:space="preserve">Krones</t>
   </si>
   <si>
-    <t xml:space="preserve">Vazquez</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID-Curso</t>
   </si>
   <si>
@@ -230,28 +524,19 @@
     <t xml:space="preserve">Periodico?</t>
   </si>
   <si>
-    <t xml:space="preserve">Frecuencia (meses)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instructor 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instructor 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instructor 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instructor 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bodega</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laboratorio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA-Efluentes</t>
+    <t xml:space="preserve">Frecuencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instructor_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instructor_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instructor_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instructor_4</t>
   </si>
   <si>
     <t xml:space="preserve">WBT-HS_E-008-L</t>
@@ -263,9 +548,6 @@
     <t xml:space="preserve">Aprobado</t>
   </si>
   <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
     <t xml:space="preserve">True</t>
   </si>
   <si>
@@ -399,12 +681,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cursos       Lineas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mecánico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaboración</t>
   </si>
 </sst>
 </file>
@@ -415,7 +691,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -438,6 +714,14 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -456,7 +740,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -480,8 +764,26 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -494,18 +796,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Esquina de la tabla dinámica" xfId="20"/>
+    <cellStyle name="Valor de la tabla dinámica" xfId="21"/>
+    <cellStyle name="Campo de la tabla dinámica" xfId="22"/>
+    <cellStyle name="Categoría de la tabla dinámica" xfId="23"/>
+    <cellStyle name="Título de la tabla dinámica" xfId="24"/>
+    <cellStyle name="Resultado de la tabla dinámica" xfId="25"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -587,6 +899,428 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="97" createdVersion="3">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="R55:R152" sheet="Empleados"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="Nombre" numFmtId="0">
+      <sharedItems containsBlank="1" count="48">
+        <s v="Agustín"/>
+        <s v="Alejandro"/>
+        <s v="Bautista"/>
+        <s v="Benjamín"/>
+        <s v="Brian"/>
+        <s v="Carlos"/>
+        <s v="Chano"/>
+        <s v="Claudio"/>
+        <s v="Daniel"/>
+        <s v="Demian"/>
+        <s v="Diego"/>
+        <s v="Eduardo"/>
+        <s v="Esteban"/>
+        <s v="Facundo"/>
+        <s v="Federico"/>
+        <s v="Felipe"/>
+        <s v="Fernando"/>
+        <s v="Franco"/>
+        <s v="Gustavo"/>
+        <s v="Joaquín"/>
+        <s v="Jonathan"/>
+        <s v="Jorge"/>
+        <s v="José"/>
+        <s v="Juan"/>
+        <s v="Lautaro"/>
+        <s v="Leandro"/>
+        <s v="Lucas"/>
+        <s v="Luciano"/>
+        <s v="Luis"/>
+        <s v="Marcelo"/>
+        <s v="Martín"/>
+        <s v="Mateo"/>
+        <s v="Matías"/>
+        <s v="Miguel"/>
+        <s v="Nicolás"/>
+        <s v="Pablo"/>
+        <s v="Pedro"/>
+        <s v="por"/>
+        <s v="Ricardo"/>
+        <s v="Roberto"/>
+        <s v="Santiago"/>
+        <s v="Santino"/>
+        <s v="seguida"/>
+        <s v="Sergio"/>
+        <s v="Thiago"/>
+        <s v="Thian"/>
+        <s v="Tomás"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="97">
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="0" outlineData="0" compact="0" compactData="0">
+  <location ref="V50:W98" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0" outline="0">
+      <items count="48">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item h="1" x="47"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Cursos" displayName="Cursos" ref="A1:J21" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:J21"/>
@@ -596,18 +1330,18 @@
     <tableColumn id="3" name="Descripcion"/>
     <tableColumn id="4" name="Calificacion que genera"/>
     <tableColumn id="5" name="Periodico?"/>
-    <tableColumn id="6" name="Frecuencia (meses)"/>
-    <tableColumn id="7" name="Instructor 1"/>
-    <tableColumn id="8" name="Instructor 2"/>
-    <tableColumn id="9" name="Instructor 3"/>
-    <tableColumn id="10" name="Instructor 4"/>
+    <tableColumn id="6" name="Frecuencia"/>
+    <tableColumn id="7" name="Instructor_1"/>
+    <tableColumn id="8" name="Instructor_2"/>
+    <tableColumn id="9" name="Instructor_3"/>
+    <tableColumn id="10" name="Instructor_4"/>
   </tableColumns>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Estudiantes" displayName="Estudiantes" ref="A1:I8" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:I8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Estudiantes" displayName="Estudiantes" ref="A1:I100" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:I100"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Legajo"/>
     <tableColumn id="2" name="Nombre"/>
@@ -646,20 +1380,23 @@
     <tabColor rgb="FF375623"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S23" activeCellId="0" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="19.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.39"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,221 +1428,2981 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>44009709</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>28302423</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>44681470</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>33802863</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>23449136</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>39827437</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>35004015</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>43920957</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>37747016</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>48663665</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>41607416</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>40654321</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>34916310</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>31730665</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>32687459</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>24870681</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>42427728</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>29968731</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>20392944</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>28242977</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>43699055</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>38206920</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>33030061</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>25234371</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>38118685</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>35401479</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>45881614</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>20907744</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>24239788</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>39067395</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>43908773</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>49975423</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>38635826</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>28713923</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>44820358</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>42734685</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>27789007</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>35879429</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>36254757</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>33436247</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>29080861</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>25595172</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>32451811</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>45708001</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>47647182</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>45174642</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>26693332</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>36969295</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>31911950</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>26897654</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>46694111</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>46564054</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>40242249</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>31030277</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>24327481</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>49098811</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="1" t="n">
+        <v>44568987</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>42222680</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>26416890</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>46550861</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" s="1" t="n">
+        <v>48851768</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" s="1" t="n">
+        <v>24060588</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>43164453</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>43590687</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>48962764</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>27088991</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>36582733</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>21435221</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>43528038</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>28816270</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>27548805</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D73" s="1" t="n">
+        <v>28615474</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>49971831</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>40654321</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D75" s="1" t="n">
+        <v>42753433</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>46056733</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>30618452</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>46366381</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>33161438</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>33157437</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>45135142</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H81" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D82" s="1" t="n">
+        <v>23159648</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D83" s="1" t="n">
+        <v>26379397</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>33500662</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>46622147</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>24869538</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H86" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>37882331</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>21168968</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>48430961</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>25118665</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D91" s="1" t="n">
+        <v>32797128</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F91" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>20640344</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H92" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D93" s="1" t="n">
+        <v>20273949</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H93" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>38615530</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H94" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" s="1" t="n">
+        <v>27179360</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H95" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D96" s="1" t="n">
+        <v>46439974</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D97" s="1" t="n">
+        <v>31247779</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H97" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>29195735</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>37654789</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="H99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>44568987</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>915</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>20345915</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>26897654</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>852</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>37654789</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>684</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>29195735</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>915</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>20345915</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>32687459</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="2"/>
-    </row>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F101" s="0"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F102" s="0"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F103" s="0"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F104" s="0"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F105" s="0"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F106" s="0"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F107" s="0"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F108" s="0"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F109" s="0"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F110" s="0"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F111" s="0"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F112" s="0"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F113" s="0"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F114" s="0"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F115" s="0"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation allowBlank="true" error="Valores entre 0 y 99.999.999" errorStyle="stop" errorTitle="Ingrese numeros" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D8" type="whole">
+  <dataValidations count="5">
+    <dataValidation allowBlank="true" error="Valores entre 0 y 99.999.999" errorStyle="stop" errorTitle="Ingrese numeros" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D13 D16 D51 D58 D98:D100" type="whole">
       <formula1>0</formula1>
       <formula2>99999999</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Valores entre 0 y 10.000" errorStyle="stop" errorTitle="Ingrese números" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:A8" type="whole">
+    <dataValidation allowBlank="true" error="Valores entre 0 y 10.000" errorStyle="stop" errorTitle="Ingrese números" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A13 A16 A51 A58 A98:A100" type="whole">
       <formula1>0</formula1>
       <formula2>10000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I2:I8" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I13 I16 I51 I58 I98:I100" type="list">
       <formula1>"TM,TT"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="No ingresar números ni simbolos" errorStyle="stop" errorTitle="Solo texto" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B2:C2" type="custom">
-      <formula1>ISTEXT(B3:C9)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="No ingresar números ni simbolos" errorStyle="stop" errorTitle="Solo texto" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B3:C8" type="custom">
-      <formula1>ISTEXT(A4:B10)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H8" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H13" type="list">
       <formula1>PASL!G$3:G$43</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:G8" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E13:G13 E16:G16 E51:G51 E58:G58 E98:G100" type="list">
       <formula1>PASL!A$3:A$47</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -931,7 +4428,7 @@
   </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -958,10 +4455,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -984,28 +4481,28 @@
         <v>20974563</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>132</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1013,28 +4510,28 @@
         <v>38963856</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>432</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1042,16 +4539,16 @@
         <v>39852147</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1062,28 +4559,28 @@
         <v>43915678</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>852</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1091,28 +4588,28 @@
         <v>28945387</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>684</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1120,16 +4617,16 @@
         <v>35658945</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1140,28 +4637,28 @@
         <v>42357951</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>147</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1224,8 +4721,8 @@
   </sheetPr>
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R9" activeCellId="0" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1254,70 +4751,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="W1" s="1" t="n">
         <v>1</v>
@@ -1334,16 +4831,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>0</v>
@@ -1355,66 +4852,66 @@
         <v>42357951</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>24</v>
@@ -1426,66 +4923,66 @@
         <v>20974563</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>12</v>
@@ -1497,66 +4994,66 @@
         <v>20974563</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0</v>
@@ -1568,66 +5065,66 @@
         <v>38963856</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>0</v>
@@ -1639,66 +5136,66 @@
         <v>28945387</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>12</v>
@@ -1710,66 +5207,66 @@
         <v>38963856</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>0</v>
@@ -1781,66 +5278,66 @@
         <v>35658945</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>0</v>
@@ -1852,66 +5349,66 @@
         <v>38963856</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>0</v>
@@ -1923,66 +5420,66 @@
         <v>35658945</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>0</v>
@@ -1994,66 +5491,66 @@
         <v>42357951</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>0</v>
@@ -2065,66 +5562,66 @@
         <v>42357951</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>0</v>
@@ -2136,66 +5633,66 @@
         <v>20974563</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>196</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>0</v>
@@ -2207,66 +5704,66 @@
         <v>20974563</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>197</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>0</v>
@@ -2278,66 +5775,66 @@
         <v>38963856</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>12</v>
@@ -2349,66 +5846,66 @@
         <v>28945387</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>0</v>
@@ -2420,66 +5917,66 @@
         <v>38963856</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>111</v>
+        <v>204</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>24</v>
@@ -2491,66 +5988,66 @@
         <v>39852147</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>12</v>
@@ -2562,66 +6059,66 @@
         <v>43915678</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>115</v>
+        <v>208</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>0</v>
@@ -2633,66 +6130,66 @@
         <v>38963856</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>0</v>
@@ -2704,52 +6201,52 @@
         <v>42357951</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2792,7 +6289,7 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -2804,16 +6301,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2821,9 +6318,9 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="3" t="n">
+        <v>169</v>
+      </c>
+      <c r="C2" s="4" t="n">
         <v>44833</v>
       </c>
     </row>
@@ -2832,9 +6329,9 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="3" t="n">
+        <v>173</v>
+      </c>
+      <c r="C3" s="4" t="n">
         <v>44647</v>
       </c>
     </row>
@@ -2843,9 +6340,9 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="3" t="n">
+        <v>175</v>
+      </c>
+      <c r="C4" s="4" t="n">
         <v>44681</v>
       </c>
     </row>
@@ -2854,9 +6351,9 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="3" t="n">
+        <v>177</v>
+      </c>
+      <c r="C5" s="4" t="n">
         <v>44835</v>
       </c>
     </row>
@@ -2865,9 +6362,9 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="3" t="n">
+        <v>179</v>
+      </c>
+      <c r="C6" s="4" t="n">
         <v>44904</v>
       </c>
     </row>
@@ -2876,9 +6373,9 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="3" t="n">
+        <v>181</v>
+      </c>
+      <c r="C7" s="4" t="n">
         <v>44714</v>
       </c>
     </row>
@@ -2887,9 +6384,9 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="3" t="n">
+        <v>183</v>
+      </c>
+      <c r="C8" s="4" t="n">
         <v>44566</v>
       </c>
     </row>
@@ -2898,9 +6395,9 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="3" t="n">
+        <v>185</v>
+      </c>
+      <c r="C9" s="4" t="n">
         <v>44801</v>
       </c>
     </row>
@@ -2909,9 +6406,9 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="3" t="n">
+        <v>187</v>
+      </c>
+      <c r="C10" s="4" t="n">
         <v>44830</v>
       </c>
     </row>
@@ -2920,9 +6417,9 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="3" t="n">
+        <v>189</v>
+      </c>
+      <c r="C11" s="4" t="n">
         <v>44918</v>
       </c>
     </row>
@@ -2931,9 +6428,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="3" t="n">
+        <v>191</v>
+      </c>
+      <c r="C12" s="4" t="n">
         <v>44890</v>
       </c>
     </row>
@@ -2942,9 +6439,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="3" t="n">
+        <v>193</v>
+      </c>
+      <c r="C13" s="4" t="n">
         <v>44686</v>
       </c>
     </row>
@@ -2953,9 +6450,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="C14" s="4" t="n">
         <v>44582</v>
       </c>
     </row>
@@ -2964,9 +6461,9 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="3" t="n">
+        <v>197</v>
+      </c>
+      <c r="C15" s="4" t="n">
         <v>44702</v>
       </c>
     </row>
@@ -2975,9 +6472,9 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="3" t="n">
+        <v>199</v>
+      </c>
+      <c r="C16" s="4" t="n">
         <v>44586</v>
       </c>
     </row>
@@ -2986,9 +6483,9 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="3" t="n">
+        <v>201</v>
+      </c>
+      <c r="C17" s="4" t="n">
         <v>44589</v>
       </c>
     </row>
@@ -2997,9 +6494,9 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="3" t="n">
+        <v>203</v>
+      </c>
+      <c r="C18" s="4" t="n">
         <v>44921</v>
       </c>
     </row>
@@ -3008,9 +6505,9 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="3" t="n">
+        <v>205</v>
+      </c>
+      <c r="C19" s="4" t="n">
         <v>44918</v>
       </c>
     </row>
@@ -3019,9 +6516,9 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="3" t="n">
+        <v>207</v>
+      </c>
+      <c r="C20" s="4" t="n">
         <v>44716</v>
       </c>
     </row>
@@ -3030,9 +6527,9 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="3" t="n">
+        <v>209</v>
+      </c>
+      <c r="C21" s="4" t="n">
         <v>44739</v>
       </c>
     </row>
@@ -3055,7 +6552,7 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3068,422 +6565,422 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>214</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>197</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3511,7 +7008,7 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3529,548 +7026,548 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>197</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4098,7 +7595,7 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4110,7 +7607,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>1</v>
@@ -4127,342 +7624,342 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>197</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4490,8 +7987,8 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4514,174 +8011,151 @@
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="0"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="1" t="n">
+      <c r="D3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="G3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="G4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="G5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="D6" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="G6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="G10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="G13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G14" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
